--- a/main.xlsx
+++ b/main.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
   <si>
     <t>재고번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,49 @@
   <si>
     <t>\</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따은</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 아세톤</t>
+  </si>
+  <si>
+    <t>분말소화기 사용</t>
+  </si>
+  <si>
+    <t>환기 실시</t>
+  </si>
+  <si>
+    <t>서늘한 곳 보관</t>
+  </si>
+  <si>
+    <t>보호장갑 착용</t>
+  </si>
+  <si>
+    <t>무색 액체</t>
+  </si>
+  <si>
+    <t>안정함</t>
+  </si>
+  <si>
+    <t>구토 유발 가능</t>
+  </si>
+  <si>
+    <t>수생 독성 없음</t>
+  </si>
+  <si>
+    <t>소각 처리</t>
+  </si>
+  <si>
+    <t>UN1090</t>
+  </si>
+  <si>
+    <t>위험물 4류</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 제조일: 2024-01</t>
   </si>
 </sst>
 </file>
@@ -570,15 +613,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -631,7 +674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5678</v>
       </c>
@@ -684,7 +727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1234</v>
       </c>
@@ -737,60 +780,60 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>587</v>
       </c>
-      <c r="B4">
-        <v>101</v>
-      </c>
-      <c r="C4">
-        <v>102</v>
-      </c>
-      <c r="D4">
-        <v>103</v>
-      </c>
-      <c r="E4">
-        <v>104</v>
-      </c>
-      <c r="F4">
-        <v>105</v>
-      </c>
-      <c r="G4">
-        <v>106</v>
-      </c>
-      <c r="H4">
-        <v>107</v>
-      </c>
-      <c r="I4">
-        <v>108</v>
-      </c>
-      <c r="J4">
-        <v>109</v>
-      </c>
-      <c r="K4">
-        <v>110</v>
-      </c>
-      <c r="L4">
-        <v>111</v>
-      </c>
-      <c r="M4">
-        <v>112</v>
-      </c>
-      <c r="N4">
-        <v>113</v>
-      </c>
-      <c r="O4">
-        <v>114</v>
-      </c>
-      <c r="P4">
-        <v>115</v>
-      </c>
-      <c r="Q4">
-        <v>116</v>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>206</v>
       </c>
@@ -843,7 +886,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>102</v>
       </c>
@@ -865,9 +908,6 @@
       <c r="G6" t="s">
         <v>36</v>
       </c>
-      <c r="H6">
-        <v>1004</v>
-      </c>
       <c r="I6">
         <v>1004</v>
       </c>
@@ -883,18 +923,30 @@
       <c r="M6">
         <v>1004</v>
       </c>
-      <c r="N6">
-        <v>1004</v>
-      </c>
-      <c r="O6">
-        <v>1004</v>
-      </c>
-      <c r="P6">
-        <v>1004</v>
-      </c>
-      <c r="Q6">
-        <v>1004</v>
-      </c>
+      <c r="Q6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/main.xlsx
+++ b/main.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>재고번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,111 +146,124 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>김다은</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사랑함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스트레이트키즈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>갑니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아세톤</t>
-  </si>
-  <si>
-    <t>인화성 액체</t>
-  </si>
-  <si>
-    <t>아세톤 99%</t>
-  </si>
-  <si>
-    <t>신선한 공기</t>
-  </si>
-  <si>
-    <t>분말소화기 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>환기실시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서늘한곳 보관</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">보호장갑 착용 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무색액체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안정함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구토유발가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>\</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>따은</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 아세톤</t>
-  </si>
-  <si>
-    <t>분말소화기 사용</t>
-  </si>
-  <si>
-    <t>환기 실시</t>
-  </si>
-  <si>
-    <t>서늘한 곳 보관</t>
-  </si>
-  <si>
-    <t>보호장갑 착용</t>
-  </si>
-  <si>
-    <t>무색 액체</t>
-  </si>
-  <si>
-    <t>안정함</t>
-  </si>
-  <si>
-    <t>구토 유발 가능</t>
-  </si>
-  <si>
-    <t>수생 독성 없음</t>
-  </si>
-  <si>
-    <t>소각 처리</t>
-  </si>
-  <si>
-    <t>UN1090</t>
-  </si>
-  <si>
-    <t>위험물 4류</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 제조일: 2024-01</t>
+    <t>아세톤(ACETONE) [MSDS-001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 인화성 액체 : 구분2 - 심한 눈 손상성/눈 자극성 : 구분2 - 생식독성 : 구분2 - 특정표적장기 독성(1회 노출) : 구분3(마취작용) - 특정표적장기 독성(1회 노출) : 구분3(호흡기계 자극) - 특정표적장기 독성(반복 노출) : 구분2 - 흡인 유해성 : 구분2</t>
+  </si>
+  <si>
+    <t>Acetone 메틸케톤(Methyl Ketone) 67-64-1 / KE-29367</t>
+  </si>
+  <si>
+    <t>가. 눈에 들어갔을 때 - 눈을 문지르지 마시오. - 많은 양의 물을 사용하여 적어도 15분 동안 눈을 씻어내시오. - 즉시 의사의 치료를 받으시오. - 증상(발적, 자극 등)이 발생할 경우 즉시 병원으로 가시오.</t>
+  </si>
+  <si>
+    <t>- 분말소화약제, 이산화탄소, 물, 알코올형홈 - 직사주수를 사용한 소화는 피하시오. - 화재 진압 시 방화복, 소방용 구조헬멧, 소방용 안전화, 소방용 안전장갑, 공기호흡기를 착용하시오.</t>
+  </si>
+  <si>
+    <t>- 누출지역으로부터 안전한 지역으로 용기를 이동하시오. - 모든 점화원을 제거하시오 - 유출 액체 및 누출 부위에 직접 주수하지 마시오. - 관계인 외 접근을 막고 위험 지역을 격리하며 출입을 금지하시오.</t>
+  </si>
+  <si>
+    <t>- 취급 후 철저히 씻으시오. - 현행법규 및 규정에 의하여 취급하시오. - 사용 전에 사용설명서를 입수하시오. - 통풍이 잘 되는 장소에서만 취급하시오. - 장기간 또는 반복적으로 증기를 흡입하지 마시오.</t>
+  </si>
+  <si>
+    <t>가. 인체를 보호하기 위해 필요한 조치 사항 및 보호구
+- 밀폐된 공간에 출입하기 전에 환기를 실시하시오.
+- 반드시 바람을 등지고 작업하고 바람을 안고 있는 사람을 대피시키시오.
+- 흡입 및 접촉 시 피부와 눈을 자극하거나 화상을 입힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가. 외관
+- 성상 액체
+라. pH 자료없음
+5/8
+○ (호흡기)
+○ (경구)
+○ (눈·피부)
+○ 급성 독성
+* 경구 독성
+* 경피 독성
+* 흡입 독성
+○ 피부 부식성 또는 자극성
+○ 심한 눈 손상 또는 자극성
+○ 호흡기 과민성
+○ 피부 과민성
+○ 발암성
+* 환경부 화학물질관리법
+* IARC
+사. 인화점 -17 ℃
+아. 증발 속도 자료없음
+자. 인화성 (고체, 기체) 해당없음
+마. 녹는점/어는점 -94.6 ℃
+바. 초기 끓는점과 끓는점 범위 56.1 ℃
+파. 증기밀도 2
+하. 비중 0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가. 화학적 안정성 및 유해 반응의 가능성
+- 권장된 보관과 취급시 안정함.
+- 유해중합반응을 일으키지 않음.
+너. 자연발화온도 465 ℃
+더. 분해온도 자료없음
+러. 점도 0.303 cP (25℃ 2))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가. 가능성이 높은 노출 경로에 관한 정보
+- 삼켜서 기도로 유입되면 유해할 수 있음
+- 호흡기계 자극을 일으킬 수 있음
+- 자료없음
+나. 피해야 할 조건
+- 혼합금지 물질 및 조건을 피하시오.
+- 열, 불꽃, 화염 또는 기타 점화원과 접촉을 피하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Acetone] : A4
+- 자료없음
+- 자료없음
+- [Acetone] : 소핵시험 음성
+- [Acetone] : 쥐 고농도 폭로 (11000ppm (20mg / L))에서 경미한 발생학적 독성증상, 태아 체중 감소, 마우스의 고농도 폭로 (6600ppm
+(15.6mg / L))에서 태아 체중 감소, 후기 태아 흡수율 증가 (EHC, 207 (1998)
+- [Acetone] : 사람에서 코, 기도, 기관지 자극, 고농도 노출시 두통, 현기증, 다리의 탈진, 실신을 일으킴.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○ 금지물질
+- 유수분리가 가능한 것은 유수분리방법으로 사전 처리할 것.
+- 소각 처리할 것.
+- 기름과 물 분리가 가능한 것은 기름과 물 분리방법으로 사전처리 하여야 한다.
+나. 폐기시 주의사항
+- 사업장폐기물을 배출하는 사업자(사업장폐기물배출자)는 사업장에서 발생하는 폐기물을 스스로 처리하거나, 폐기물처리업자, 다른
+사람의 폐기물을 재생처리 하는 자, 폐기물 처리시설을 설치 운영하는 자에게 위임하여 처리하여야 함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가. 유엔번호 (UN No.)
+- 1090</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 해당없음
+- 해당없음
+- 해당없음
+- 해당없음
+- 해당없음
+                                                                                                                                                                                                                                                                나. 화학물질관리법에 의한 규제
+- 해당없음
+- 해당없음
+- 해당없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 가. 자료의 출처
+- 본 MSDS는 산업안전보건법 제 41조 및 고용노동부고시 제2016-19호(물질안전보건자료의 비치 등에 관한 기준)에 근거하여 국내 관련
+규제 법규 현황 등을 고려하여 작성함.
+- 본 MSDS는 KOSHA, NITE, ESIS, NLM, SIDS, IPCS, NCIS 등을 근거로 작성하였음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -302,7 +315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -311,6 +324,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,13 +629,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -780,173 +797,79 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>587</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" t="s">
+      <c r="I4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E4" t="s">
+      <c r="J4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" t="s">
-        <v>56</v>
-      </c>
-      <c r="L4" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>62</v>
+      <c r="K4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>206</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5">
-        <v>1009</v>
-      </c>
-      <c r="N5">
-        <v>1010</v>
-      </c>
-      <c r="O5">
-        <v>1011</v>
-      </c>
-      <c r="P5">
-        <v>1012</v>
-      </c>
-      <c r="Q5">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>102</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6">
-        <v>1004</v>
-      </c>
-      <c r="J6">
-        <v>1004</v>
-      </c>
-      <c r="K6">
-        <v>1004</v>
-      </c>
-      <c r="L6">
-        <v>1004</v>
-      </c>
-      <c r="M6">
-        <v>1004</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/main.xlsx
+++ b/main.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>재고번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,6 +263,14 @@
 - 본 MSDS는 산업안전보건법 제 41조 및 고용노동부고시 제2016-19호(물질안전보건자료의 비치 등에 관한 기준)에 근거하여 국내 관련
 규제 법규 현황 등을 고려하여 작성함.
 - 본 MSDS는 KOSHA, NITE, ESIS, NLM, SIDS, IPCS, NCIS 등을 근거로 작성하였음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>images</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -326,7 +334,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,16 +637,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -649,49 +659,52 @@
         <v>20</v>
       </c>
       <c r="D1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>28</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>5678</v>
       </c>
@@ -701,50 +714,50 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>7</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1234</v>
       </c>
@@ -754,50 +767,50 @@
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>6</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>7</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>8</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>9</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>10</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>11</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>12</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>13</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>14</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>15</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>16</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>587</v>
       </c>
@@ -808,49 +821,52 @@
         <v>33</v>
       </c>
       <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>36</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>37</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -870,6 +886,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/main.xlsx
+++ b/main.xlsx
@@ -18,10 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
-    <t>재고번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,63 +139,6 @@
   </si>
   <si>
     <t>그 밖의 참고사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아세톤(ACETONE) [MSDS-001]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 인화성 액체 : 구분2 - 심한 눈 손상성/눈 자극성 : 구분2 - 생식독성 : 구분2 - 특정표적장기 독성(1회 노출) : 구분3(마취작용) - 특정표적장기 독성(1회 노출) : 구분3(호흡기계 자극) - 특정표적장기 독성(반복 노출) : 구분2 - 흡인 유해성 : 구분2</t>
-  </si>
-  <si>
-    <t>Acetone 메틸케톤(Methyl Ketone) 67-64-1 / KE-29367</t>
-  </si>
-  <si>
-    <t>가. 눈에 들어갔을 때 - 눈을 문지르지 마시오. - 많은 양의 물을 사용하여 적어도 15분 동안 눈을 씻어내시오. - 즉시 의사의 치료를 받으시오. - 증상(발적, 자극 등)이 발생할 경우 즉시 병원으로 가시오.</t>
-  </si>
-  <si>
-    <t>- 분말소화약제, 이산화탄소, 물, 알코올형홈 - 직사주수를 사용한 소화는 피하시오. - 화재 진압 시 방화복, 소방용 구조헬멧, 소방용 안전화, 소방용 안전장갑, 공기호흡기를 착용하시오.</t>
-  </si>
-  <si>
-    <t>- 누출지역으로부터 안전한 지역으로 용기를 이동하시오. - 모든 점화원을 제거하시오 - 유출 액체 및 누출 부위에 직접 주수하지 마시오. - 관계인 외 접근을 막고 위험 지역을 격리하며 출입을 금지하시오.</t>
-  </si>
-  <si>
-    <t>- 취급 후 철저히 씻으시오. - 현행법규 및 규정에 의하여 취급하시오. - 사용 전에 사용설명서를 입수하시오. - 통풍이 잘 되는 장소에서만 취급하시오. - 장기간 또는 반복적으로 증기를 흡입하지 마시오.</t>
-  </si>
-  <si>
-    <t>가. 인체를 보호하기 위해 필요한 조치 사항 및 보호구
-- 밀폐된 공간에 출입하기 전에 환기를 실시하시오.
-- 반드시 바람을 등지고 작업하고 바람을 안고 있는 사람을 대피시키시오.
-- 흡입 및 접촉 시 피부와 눈을 자극하거나 화상을 입힘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가. 외관
-- 성상 액체
-라. pH 자료없음
-5/8
-○ (호흡기)
-○ (경구)
-○ (눈·피부)
-○ 급성 독성
-* 경구 독성
-* 경피 독성
-* 흡입 독성
-○ 피부 부식성 또는 자극성
-○ 심한 눈 손상 또는 자극성
-○ 호흡기 과민성
-○ 피부 과민성
-○ 발암성
-* 환경부 화학물질관리법
-* IARC
-사. 인화점 -17 ℃
-아. 증발 속도 자료없음
-자. 인화성 (고체, 기체) 해당없음
-마. 녹는점/어는점 -94.6 ℃
-바. 초기 끓는점과 끓는점 범위 56.1 ℃
-파. 증기밀도 2
-하. 비중 0.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -242,43 +181,157 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가. 유엔번호 (UN No.)
-- 1090</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 해당없음
-- 해당없음
-- 해당없음
-- 해당없음
-- 해당없음
-                                                                                                                                                                                                                                                                나. 화학물질관리법에 의한 규제
-- 해당없음
-- 해당없음
-- 해당없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 가. 자료의 출처
-- 본 MSDS는 산업안전보건법 제 41조 및 고용노동부고시 제2016-19호(물질안전보건자료의 비치 등에 관한 기준)에 근거하여 국내 관련
-규제 법규 현황 등을 고려하여 작성함.
-- 본 MSDS는 KOSHA, NITE, ESIS, NLM, SIDS, IPCS, NCIS 등을 근거로 작성하였음.</t>
+    <t>CAS번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가. 눈에 들어갔을 때 
+- 눈을 문지르지 마시오. 
+- 많은 양의 물을 사용하여 적어도 15분 동안 눈을 씻어내시오. 
+- 즉시 의사의 치료를 받으시오. 
+- 증상(발적, 자극 등)이 발생할 경우 즉시 병원으로 가시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인화성 액체 :  심한 눈 손상성/눈 자극성 :  생식독성 
+- 특정표적장기 독성(1회 노출)
+- 특정표적장기 독성(1회 노출) : (호흡기계 자극) 
+- 특정표적장기 독성(반복 노출) : - 흡인 유해성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.분말소화약제, 이산화탄소, 물, 알코올형홈 직사주수를 사용한 소화는 피하시오.
+2.화재 진압 시 방화복, 소방용 구조헬멧, 소방용 안전화, 소방용 안전장갑, 공기호흡기를 착용하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.누출지역으로부터 안전한 지역으로 용기를 이동하시오.
+2.모든 점화원을 제거하시오 
+3. 유출 액체 및 누출 부위에 직접 주수하지 마시오. 
+4.관계인 외 접근을 막고 위험 지역을 격리하며 출입을 금지하시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.취급 후 철저히 씻으시오. 
+2.현행법규 및 규정에 의하여 취급하시오.
+3.사용 전에 사용설명서를 입수하시오. 
+4. 통풍이 잘 되는 장소에서만 취급하시오. 
+5.장기간 또는 반복적으로 증기를 흡입하지 마시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가. 인체를 보호하기 위해 필요한 조치 사항 및 보호구
+- 밀폐된 공간에 출입하기 전에 환기를 실시하시오.
+- 반드시 바람을 등지고 작업하고 바람을 안고 있는 사람을 대피시키시오.
+- 흡입 및 접촉 시 피부와 눈을 자극하거나 화상을 입힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○ 잔류성 유기오염물질 관리법- 해당없음
+○ EU 분류 정보
+* 확정분류 결과- [Acetone] : F; R11Xi; R36R66R67
+ * 위험 문구- [Acetone] : R11, R36, R66, R67
+ * 예방조치 문구- [Acetone] : S2, S9, S16, S26, S46
+ ○ 미국 관리 정보
+* OSHA 규정 (29CFR1910.119)- 해당없음
+* CERCLA 103 규정 (40CFR302.4)- [Acetone] : 2267.995 kg 5000 lb
+ * EPCRA 302 규정 (40CFR355.30)- 해당없음
+* EPCRA 304 규정 (40CFR355.40)- 해당없음
+* EPCRA 313 규정 (40CFR372.65)- 해당없음
+○ 로테르담 협약 물질- 해당없음
+○ 스톡홀름 협약 물질- 해당없음
+○ 몬트리올 의정서 물질- 해당없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가. 자료의 출처- 본 MSDS는 산업안전보건법 제 41조 및 고용노동부고시 제2016-19호(물질안전보건자료의 비치 등에 관한 기준)에 근거하여 국내 관련 규제 법규 현황 등을 고려하여 작성함.
+- 본 MSDS는 KOSHA, NITE, ESIS, NLM, SIDS, IPCS, NCIS 등을 근거로 작성하였음. 나. 최초 작성일자- 2007-08-29 
+다. 개정횟수 및 최종 개정일자- 12 회, 2017-03-22 
+라. 기타- 이 정보는 근로자 건강, 환경, 안전을 보호하고자, 현재 가용할 수 있는 DB를 근거로 하여 작성하였음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가. 유엔번호 (UN No.)- 1090
+나. 유엔 적정 선적명- ACETONE
+다. 운송에서의 위험성 등급- 3
+라. 용기등급- Ⅱ
+마. 해양오염물질- 해당없음
+바. 사용자가 운송 또는 운송 수단에 관련해 알 필요가 있거나 필요한 특별한 안전 대책- 지역 운송 시 위험물안전관리법에 따름.- DOT 및 기타 규정에 맞게 포장 및 운송.- 화재 시 비상조치의 종류 : F-E (Non-water-reactive flammable liquids)- 유출 시 비상조치의 종류 : S-D (Flammable liqu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아세톤(ACETONE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>화학물질명:Acetone 
+관용명 및 이명(異名):메틸케톤(Methyl Ketone)
+  CAS 번호 또는 식별번호</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>67-64-1 / KE-29367
+함유량(%):100</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가. 외관
+- 성상:액체
+- 색:무색투명
+나. 냄새:달콤한 냄새
+다. 냄새역치 : 24-1615 ㎎/㎥
+라. Ph:자료없음
+마. 녹는점/어는점:-94.6 ℃
+바. 초기 끓는점과 끓는점 범위:56.1 ℃
+사. 인화점:17 ℃
+아. 증발 속도:자료없음
+자. 인화성 (고체, 기체):해당없음
+차. 인화 또는 폭발 범위의 상한/하한:13 / 2.2 %
+카. 증기압: 24 ㎪ (20℃)
+타. 용해도: (혼화성. 알코올, 에테르, 벤젠, 클로로폼, 다이메틸폼아마이드, 오일에 가용)
+파. 증기밀도:2
+하. 비중:0.8
+거. N-옥탄올/물 분배계수:-0.24
+너. 자연발화온도: 465 ℃
+더. 분해온도:자료없음
+러. 점도:0.303 cP (25℃ 2)
+머. 분자량:58.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>images</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fire.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +352,15 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -334,7 +396,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,68 +702,83 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.75" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.875" customWidth="1"/>
+    <col min="7" max="7" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="50.625" customWidth="1"/>
+    <col min="12" max="13" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="35.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>28</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>30</v>
-      </c>
-      <c r="R1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -709,52 +786,52 @@
         <v>5678</v>
       </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>14</v>
-      </c>
-      <c r="R2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -810,60 +887,60 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>587</v>
-      </c>
-      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
+      <c r="N4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="O4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="3" t="s">
+      <c r="P4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">

--- a/main.xlsx
+++ b/main.xlsx
@@ -320,11 +320,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fire.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>images</t>
+  </si>
+  <si>
+    <t>fire.png
+cow.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -702,7 +703,7 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -736,7 +737,7 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E1" t="s">
         <v>18</v>
@@ -898,7 +899,7 @@
         <v>37</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>46</v>

--- a/main.xlsx
+++ b/main.xlsx
@@ -323,8 +323,7 @@
     <t>images</t>
   </si>
   <si>
-    <t>fire.png
-cow.png</t>
+    <t>cow.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/main.xlsx
+++ b/main.xlsx
@@ -323,7 +323,7 @@
     <t>images</t>
   </si>
   <si>
-    <t>cow.png</t>
+    <t>fire.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/main.xlsx
+++ b/main.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>나</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,6 +324,10 @@
   </si>
   <si>
     <t>fire.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cow.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,7 +706,7 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -791,6 +795,9 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
@@ -843,6 +850,9 @@
       </c>
       <c r="C3">
         <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="E3">
         <v>4</v>

--- a/main.xlsx
+++ b/main.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>나</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,6 +328,118 @@
   </si>
   <si>
     <t>cow.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구성 성분명탄산칼슘 (Calcium Carbonate)
+함량 (%)21.0-50
+구성 성분명톨루엔 (Toluene)
+함량 (%)&lt; 1.0
+응급 조치 요령</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품명   PR 1750 B 2 Part B
+제품 코드   PR 1750 B 2 Part B
+기타 식별 정보   없음
+제품 유형   고체
+사용 목적   산업용
+물질/혼합물 용도   실란트
+금지되는 용도   해당 사항 없음
+제조사   PPG Aerospace PRC-De Soto, 12780 San Fernando Road, Sylmar, CA 91342, 전화: (412) 434-4515 (U.S.), (514) 645-1320 (Canada), 01-800-00-21-400 (Mexico)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSHA 규정 상태   본 물질은 OSHA 유해성 통신 표준(29 CFR 1910.1200)에 따라 분류됩니다.
+유해성 분류   발암성 물질 Category 2, 특정 표적 장기 독성 - 반복 노출 Category 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흡입 시   신선한 공기가 있는 곳으로 옮기십시오. 호흡이 곤란하면 산소를 공급하십시오. 의사의 진료를 받으십시오.
+피부 접촉 시   오염된 옷을 벗고 비누와 물로 충분히 씻으십시오. 자극이 지속되면 의사의 진료를 받으십시오.
+눈에 들어갔을 때   즉시 다량의 물로 15분 이상 씻어내십시오. 의사의 진료를 받으십시오.
+삼켰을 때   구토를 유도하지 마십시오. 즉시 의사의 진료를 받으십시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적합한 소화제   이산화탄소, 건조 화학 분말, 알코올 내성 폼
+특별한 위험 요소   연소 시 유독 가스가 발생할 수 있습니다.
+소방관을 위한 보호 장비   자급식 호흡 장치(SCBA)와 전신 보호복을 착용하십시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 예방 조치, 보호 장비 및 응급 절차   불필요한 인원의 접근을 막고 적절한 보호 장비를 착용하십시오. 환기가 잘 되는 곳으로 이동하십시오.
+환경 예방 조치   하수구, 배수로 또는 수역으로 유출되지 않도록 주의하십시오.
+처리 방법 및 정화 절차   누출된 물질을 흡수성 물질(예: 모래, 흙)로 흡수하고 밀폐 용기에 담아 폐기하십시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">노출 기준   해당 사항 없음
+개인 보호 장비   
+호흡기 보호구   환기가 불충분한 경우 승인된 호흡기를 착용하십시오.
+눈 보호구   보안경 또는 안면 보호구를 착용하십시오.
+손 보호구   내화학성 장갑을 착용하십시오.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외관   고체
+색상   해당 사항 없음
+냄새   해당 사항 없음
+녹는점   해당 사항 없음
+자동 발화 온도   해당 사항 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안전 취급 주의사항   환기가 잘 되는 곳에서 취급하십시오. 증기를 흡입하지 마십시오. 피부와 눈에 접촉을 피하십시오.
+안전한 보관 조건   건조하고 서늘하며 통풍이 잘 되는 곳에 보관하십시오. 열, 스파크 및 화염으로부터 멀리 보관하십시오.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반응성   정상적인 조건에서는 안정합니다.
+화학적 안정성   정상적인 조건에서는 안정합니다.
+피해야 할 조건   열, 스파크, 화염
+혼합 금지 물질   강산, 강염기, 산화제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>급성 독성   해당 사항 없음
+피부 부식성/자극성   해당 사항 없음
+심각한 눈 손상/자극성   해당 사항 없음
+호흡기 과민성 또는 피부 과민성   해당 사항 없음
+발암성   톨루엔: Category 2 (발암 가능성이 있는 물질)
+생식 세포 변이원성   해당 사항 없음
+특정 표적 장기 독성 - 단회 노출   해당 사항 없음
+특정 표적 장기 독성 - 반복 노출   Category 2 (호흡기 자극 가능성)
+흡인 유해성   해당 사항 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생태 독성   해당 사항 없음
+지속성 및 분해성   해당 사항 없음
+생물 농축성   해당 사항 없음
+이동성   해당 사항 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">폐기 방법   관련 법규에 따라 폐기하십시오.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UN 번호   해당 사항 없음
+적절한 운송 명칭   해당 사항 없음
+포장 그룹   해당 사항 없음
+해양 오염 물질   해당 사항 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SARA 302/311/312   해당 사항 없음
+California Proposition 65   본 제품은 암을 유발하거나 생식 기능에 해를 끼칠 수 있는 화학 물질을 포함하고 있습니다. (톨루엔)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,7 +501,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -400,6 +512,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -705,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -953,25 +1068,59 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+    <row r="5" spans="1:20" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
+      <c r="E5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
     </row>
